--- a/medicine/Psychotrope/Ardmore_(distillerie)/Ardmore_(distillerie).xlsx
+++ b/medicine/Psychotrope/Ardmore_(distillerie)/Ardmore_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ardmore est une distillerie de whisky située dans la région du Speyside, au nord de l'Écosse.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distillerie a été fondée en 1897 par William Teacher[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distillerie a été fondée en 1897 par William Teacher.
 La distillerie se situe à l'Est de la région du Speyside, entre la rivière Bogie, la forêt de Clashindarroch et les premiers contreforts des monts Grampians.
 La distillerie Ardmore est une des rares distilleries à chauffer ses alambics au charbon.
 </t>
@@ -545,7 +559,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardmore en gaélique écossais signifie « grande hauteur »
 </t>
@@ -576,14 +592,85 @@
           <t>Embouteillages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le single malt Ardmore entre dans la composition de nombreux blends, en particulier le Teacher's Highland Cream.
-Embouteillage officiel
-Ardmore Traditional Cask[3]
-Ardmore Fully Peated 46%
-Embouteilleurs indépendants
-Ardmore 1990 Signatory's Un-Chillfiltered Collection - Signatory Vintage
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le single malt Ardmore entre dans la composition de nombreux blends, en particulier le Teacher's Highland Cream.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ardmore_(distillerie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardmore_(distillerie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Embouteillages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Embouteillage officiel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ardmore Traditional Cask
+Ardmore Fully Peated 46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ardmore_(distillerie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardmore_(distillerie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Embouteillages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Embouteilleurs indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ardmore 1990 Signatory's Un-Chillfiltered Collection - Signatory Vintage
 Ardmore 1992 Signatory's Un-Chillfiltered Collection - Signatory Vintage
 Ardmore Vintage 1977 - Signatory Vintage
 Ardmore Reserve 1991 - Gordon &amp; MacPhail
